--- a/src/test/java/dataEngine/Unit Tests.xlsx
+++ b/src/test/java/dataEngine/Unit Tests.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="18195" windowHeight="10290"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -51,33 +51,9 @@
     <t>openBrowser</t>
   </si>
   <si>
-    <t>Mozilla</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>login</t>
-  </si>
-  <si>
-    <t>waitFor5</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>maxadmin</t>
-  </si>
-  <si>
     <t>TS_1000</t>
   </si>
   <si>
-    <t>TS_1001</t>
-  </si>
-  <si>
-    <t>TS_1002</t>
-  </si>
-  <si>
     <t>TS_1003</t>
   </si>
   <si>
@@ -85,6 +61,15 @@
   </si>
   <si>
     <t>UnitTests</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>Chrome</t>
   </si>
 </sst>
 </file>
@@ -200,8 +185,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -497,23 +510,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L140"/>
+  <dimension ref="A1:L137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="24.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="39.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="24.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -547,10 +560,10 @@
     </row>
     <row r="2" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="15" t="s">
@@ -564,77 +577,49 @@
         <v>10</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="14"/>
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" s="12"/>
       <c r="K2" s="11"/>
       <c r="L2" s="13"/>
     </row>
     <row r="3" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C3" s="15"/>
-      <c r="D3" s="15" t="s">
-        <v>12</v>
-      </c>
+      <c r="D3" s="15"/>
       <c r="E3" s="15"/>
-      <c r="F3" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="17" t="s">
+      <c r="F3" s="18">
+        <v>1</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="18">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="14"/>
-    </row>
-    <row r="4" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="14"/>
-    </row>
-    <row r="5" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="18">
-        <v>1</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="18">
-        <v>1</v>
-      </c>
-      <c r="I5" s="14"/>
+    </row>
+    <row r="4" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="5"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
@@ -675,19 +660,16 @@
     <row r="12" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="5"/>
       <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="5"/>
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="5"/>
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -713,7 +695,7 @@
     <row r="19" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="F19" s="8"/>
-      <c r="H19" s="8"/>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
@@ -728,40 +710,40 @@
     <row r="22" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
       <c r="F22" s="8"/>
-      <c r="H22" s="9"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="F23" s="8"/>
-      <c r="H23" s="8"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="7"/>
     </row>
     <row r="24" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="F24" s="8"/>
-      <c r="H24" s="8"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="7"/>
     </row>
     <row r="25" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
       <c r="F25" s="8"/>
-      <c r="H25" s="8"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="7"/>
     </row>
     <row r="26" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="7"/>
+      <c r="H26" s="8"/>
     </row>
     <row r="27" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="7"/>
+      <c r="H27" s="8"/>
     </row>
     <row r="28" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
       <c r="F28" s="8"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="7"/>
+      <c r="H28" s="8"/>
     </row>
     <row r="29" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
@@ -781,7 +763,7 @@
     <row r="32" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
       <c r="F32" s="8"/>
-      <c r="H32" s="8"/>
+      <c r="H32" s="9"/>
     </row>
     <row r="33" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
@@ -791,35 +773,37 @@
     <row r="34" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
       <c r="F34" s="8"/>
+      <c r="G34" s="6"/>
       <c r="H34" s="8"/>
     </row>
     <row r="35" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="5"/>
       <c r="F35" s="8"/>
-      <c r="H35" s="9"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="7"/>
     </row>
     <row r="36" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="5"/>
       <c r="F36" s="8"/>
-      <c r="H36" s="8"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="7"/>
     </row>
     <row r="37" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="5"/>
       <c r="F37" s="8"/>
-      <c r="G37" s="6"/>
+      <c r="G37" s="5"/>
       <c r="H37" s="8"/>
     </row>
     <row r="38" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="5"/>
       <c r="F38" s="8"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="7"/>
+      <c r="H38" s="8"/>
     </row>
     <row r="39" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="5"/>
       <c r="F39" s="8"/>
       <c r="G39" s="5"/>
-      <c r="H39" s="7"/>
+      <c r="H39" s="8"/>
     </row>
     <row r="40" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="5"/>
@@ -830,6 +814,7 @@
     <row r="41" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="5"/>
       <c r="F41" s="8"/>
+      <c r="G41" s="5"/>
       <c r="H41" s="8"/>
     </row>
     <row r="42" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -895,19 +880,16 @@
     <row r="52" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="5"/>
       <c r="F52" s="8"/>
-      <c r="G52" s="5"/>
       <c r="H52" s="8"/>
     </row>
     <row r="53" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="5"/>
       <c r="F53" s="8"/>
-      <c r="G53" s="5"/>
       <c r="H53" s="8"/>
     </row>
     <row r="54" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="5"/>
       <c r="F54" s="8"/>
-      <c r="G54" s="5"/>
       <c r="H54" s="8"/>
     </row>
     <row r="55" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -933,7 +915,7 @@
     <row r="59" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="5"/>
       <c r="F59" s="8"/>
-      <c r="H59" s="8"/>
+      <c r="H59" s="9"/>
     </row>
     <row r="60" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="5"/>
@@ -948,40 +930,40 @@
     <row r="62" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="5"/>
       <c r="F62" s="8"/>
-      <c r="H62" s="9"/>
+      <c r="H62" s="8"/>
     </row>
     <row r="63" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="5"/>
       <c r="F63" s="8"/>
-      <c r="H63" s="8"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="7"/>
     </row>
     <row r="64" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="5"/>
       <c r="F64" s="8"/>
-      <c r="H64" s="8"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="7"/>
     </row>
     <row r="65" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="5"/>
       <c r="F65" s="8"/>
-      <c r="H65" s="8"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="7"/>
     </row>
     <row r="66" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="5"/>
       <c r="F66" s="8"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="7"/>
+      <c r="H66" s="8"/>
     </row>
     <row r="67" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="5"/>
       <c r="F67" s="8"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="7"/>
+      <c r="H67" s="8"/>
     </row>
     <row r="68" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="5"/>
       <c r="F68" s="8"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="7"/>
+      <c r="H68" s="8"/>
     </row>
     <row r="69" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="5"/>
@@ -1001,7 +983,7 @@
     <row r="72" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="5"/>
       <c r="F72" s="8"/>
-      <c r="H72" s="8"/>
+      <c r="H72" s="9"/>
     </row>
     <row r="73" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="5"/>
@@ -1011,35 +993,37 @@
     <row r="74" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="5"/>
       <c r="F74" s="8"/>
+      <c r="G74" s="6"/>
       <c r="H74" s="8"/>
     </row>
     <row r="75" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="5"/>
       <c r="F75" s="8"/>
-      <c r="H75" s="9"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="7"/>
     </row>
     <row r="76" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B76" s="5"/>
       <c r="F76" s="8"/>
-      <c r="H76" s="8"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="7"/>
     </row>
     <row r="77" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B77" s="5"/>
       <c r="F77" s="8"/>
-      <c r="G77" s="6"/>
+      <c r="G77" s="5"/>
       <c r="H77" s="8"/>
     </row>
     <row r="78" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="5"/>
       <c r="F78" s="8"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="7"/>
+      <c r="H78" s="8"/>
     </row>
     <row r="79" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="5"/>
       <c r="F79" s="8"/>
       <c r="G79" s="5"/>
-      <c r="H79" s="7"/>
+      <c r="H79" s="8"/>
     </row>
     <row r="80" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="5"/>
@@ -1050,6 +1034,7 @@
     <row r="81" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="5"/>
       <c r="F81" s="8"/>
+      <c r="G81" s="5"/>
       <c r="H81" s="8"/>
     </row>
     <row r="82" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1115,19 +1100,16 @@
     <row r="92" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B92" s="5"/>
       <c r="F92" s="8"/>
-      <c r="G92" s="5"/>
       <c r="H92" s="8"/>
     </row>
     <row r="93" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B93" s="5"/>
       <c r="F93" s="8"/>
-      <c r="G93" s="5"/>
       <c r="H93" s="8"/>
     </row>
     <row r="94" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B94" s="5"/>
       <c r="F94" s="8"/>
-      <c r="G94" s="5"/>
       <c r="H94" s="8"/>
     </row>
     <row r="95" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1153,6 +1135,7 @@
     <row r="99" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B99" s="5"/>
       <c r="F99" s="8"/>
+      <c r="G99" s="5"/>
       <c r="H99" s="8"/>
     </row>
     <row r="100" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1168,7 +1151,6 @@
     <row r="102" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B102" s="5"/>
       <c r="F102" s="8"/>
-      <c r="G102" s="5"/>
       <c r="H102" s="8"/>
     </row>
     <row r="103" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1189,11 +1171,13 @@
     <row r="106" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B106" s="5"/>
       <c r="F106" s="8"/>
+      <c r="G106" s="5"/>
       <c r="H106" s="8"/>
     </row>
     <row r="107" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B107" s="5"/>
       <c r="F107" s="8"/>
+      <c r="G107" s="5"/>
       <c r="H107" s="8"/>
     </row>
     <row r="108" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1204,13 +1188,11 @@
     <row r="109" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B109" s="5"/>
       <c r="F109" s="8"/>
-      <c r="G109" s="5"/>
       <c r="H109" s="8"/>
     </row>
     <row r="110" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B110" s="5"/>
       <c r="F110" s="8"/>
-      <c r="G110" s="5"/>
       <c r="H110" s="8"/>
     </row>
     <row r="111" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1231,6 +1213,7 @@
     <row r="114" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B114" s="5"/>
       <c r="F114" s="8"/>
+      <c r="G114" s="5"/>
       <c r="H114" s="8"/>
     </row>
     <row r="115" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1246,7 +1229,6 @@
     <row r="117" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B117" s="5"/>
       <c r="F117" s="8"/>
-      <c r="G117" s="5"/>
       <c r="H117" s="8"/>
     </row>
     <row r="118" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1267,7 +1249,7 @@
     <row r="121" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B121" s="5"/>
       <c r="F121" s="8"/>
-      <c r="H121" s="8"/>
+      <c r="H121" s="9"/>
     </row>
     <row r="122" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B122" s="5"/>
@@ -1282,41 +1264,41 @@
     <row r="124" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B124" s="5"/>
       <c r="F124" s="8"/>
-      <c r="H124" s="9"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="8"/>
     </row>
     <row r="125" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B125" s="5"/>
       <c r="F125" s="8"/>
-      <c r="H125" s="8"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="7"/>
     </row>
     <row r="126" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B126" s="5"/>
       <c r="F126" s="8"/>
-      <c r="H126" s="8"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="7"/>
     </row>
     <row r="127" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B127" s="5"/>
       <c r="F127" s="8"/>
-      <c r="G127" s="6"/>
-      <c r="H127" s="8"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="7"/>
     </row>
     <row r="128" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B128" s="5"/>
       <c r="F128" s="8"/>
-      <c r="G128" s="5"/>
-      <c r="H128" s="7"/>
+      <c r="H128" s="8"/>
     </row>
     <row r="129" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B129" s="5"/>
       <c r="F129" s="8"/>
-      <c r="G129" s="5"/>
-      <c r="H129" s="7"/>
+      <c r="H129" s="8"/>
     </row>
     <row r="130" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B130" s="5"/>
       <c r="F130" s="8"/>
-      <c r="G130" s="5"/>
-      <c r="H130" s="7"/>
+      <c r="H130" s="8"/>
     </row>
     <row r="131" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B131" s="5"/>
@@ -1336,7 +1318,7 @@
     <row r="134" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B134" s="5"/>
       <c r="F134" s="8"/>
-      <c r="H134" s="8"/>
+      <c r="H134" s="9"/>
     </row>
     <row r="135" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B135" s="5"/>
@@ -1346,29 +1328,14 @@
     <row r="136" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B136" s="5"/>
       <c r="F136" s="8"/>
+      <c r="G136" s="6"/>
       <c r="H136" s="8"/>
     </row>
     <row r="137" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B137" s="5"/>
-      <c r="F137" s="8"/>
-      <c r="H137" s="9"/>
-    </row>
-    <row r="138" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="5"/>
-      <c r="F138" s="8"/>
-      <c r="H138" s="8"/>
-    </row>
-    <row r="139" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="5"/>
-      <c r="F139" s="8"/>
-      <c r="G139" s="6"/>
-      <c r="H139" s="8"/>
-    </row>
-    <row r="140" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="5"/>
-      <c r="F140" s="1"/>
-      <c r="G140" s="1"/>
-      <c r="H140" s="1"/>
+      <c r="F137" s="1"/>
+      <c r="G137" s="1"/>
+      <c r="H137" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/java/dataEngine/Unit Tests.xlsx
+++ b/src/test/java/dataEngine/Unit Tests.xlsx
@@ -60,9 +60,6 @@
     <t>Unit Tests</t>
   </si>
   <si>
-    <t>UnitTests</t>
-  </si>
-  <si>
     <t>PASS</t>
   </si>
   <si>
@@ -70,6 +67,9 @@
   </si>
   <si>
     <t>Chrome</t>
+  </si>
+  <si>
+    <t>WOUnitTests</t>
   </si>
 </sst>
 </file>
@@ -513,7 +513,7 @@
   <dimension ref="A1:L137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,10 +577,10 @@
         <v>10</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="11"/>
@@ -600,13 +600,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H3" s="18">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">

--- a/src/test/java/dataEngine/Unit Tests.xlsx
+++ b/src/test/java/dataEngine/Unit Tests.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="18195" windowHeight="10290"/>
+    <workbookView windowHeight="10290" windowWidth="18195" xWindow="240" yWindow="30"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Steps" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Test Steps" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
+    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -69,7 +69,7 @@
     <t>Chrome</t>
   </si>
   <si>
-    <t>WOUnitTests</t>
+    <t>UnitTests</t>
   </si>
 </sst>
 </file>
@@ -141,49 +141,49 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -209,10 +209,10 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+  <tableStyles count="1" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2">
+    <tableStyle count="2" name="MySqlDefault" pivot="0" table="0">
+      <tableStyleElement dxfId="1" type="wholeTable"/>
+      <tableStyleElement dxfId="0" type="headerRow"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -228,10 +228,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -389,7 +389,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -398,13 +398,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -414,7 +414,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -423,7 +423,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -432,7 +432,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -442,12 +442,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -478,7 +478,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -497,7 +497,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -509,24 +509,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L137"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="39.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="24.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="20" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="24.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="39.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="13.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="11.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="24.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="20.0" collapsed="true"/>
+    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -558,7 +558,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>13</v>
       </c>
@@ -586,7 +586,7 @@
       <c r="K2" s="11"/>
       <c r="L2" s="13"/>
     </row>
-    <row r="3" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>13</v>
       </c>
@@ -606,762 +606,762 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row customFormat="1" r="4" s="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="F4" s="8"/>
       <c r="G4" s="5"/>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" s="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="F5" s="8"/>
       <c r="G5" s="5"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" s="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="F6" s="8"/>
       <c r="G6" s="5"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="F7" s="8"/>
       <c r="G7" s="5"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="8" s="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="F8" s="8"/>
       <c r="G8" s="5"/>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" s="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="F9" s="8"/>
       <c r="G9" s="5"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="10" s="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="F10" s="8"/>
       <c r="G10" s="5"/>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="11" s="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="F11" s="8"/>
       <c r="G11" s="5"/>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="12" s="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="F12" s="8"/>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="13" s="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="F13" s="8"/>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="14" s="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="F14" s="8"/>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="15" s="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
       <c r="F15" s="8"/>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="16" s="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
       <c r="F16" s="8"/>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="17" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="F17" s="8"/>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="18" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="F18" s="8"/>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="19" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="F19" s="8"/>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="20" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
       <c r="F20" s="8"/>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="21" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="F21" s="8"/>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="22" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
       <c r="F22" s="8"/>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="23" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="F23" s="8"/>
       <c r="G23" s="5"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="24" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="F24" s="8"/>
       <c r="G24" s="5"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="25" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
       <c r="F25" s="8"/>
       <c r="G25" s="5"/>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="26" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="F26" s="8"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="27" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
       <c r="F27" s="8"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="28" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
       <c r="F28" s="8"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="29" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="F29" s="8"/>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="30" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
       <c r="F30" s="8"/>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="31" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
       <c r="F31" s="8"/>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="32" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
       <c r="F32" s="8"/>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="33" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
       <c r="F33" s="8"/>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="34" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
       <c r="F34" s="8"/>
       <c r="G34" s="6"/>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="35" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="5"/>
       <c r="F35" s="8"/>
       <c r="G35" s="5"/>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="36" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="5"/>
       <c r="F36" s="8"/>
       <c r="G36" s="5"/>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="37" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="5"/>
       <c r="F37" s="8"/>
       <c r="G37" s="5"/>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="38" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="5"/>
       <c r="F38" s="8"/>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="39" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="5"/>
       <c r="F39" s="8"/>
       <c r="G39" s="5"/>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="40" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="5"/>
       <c r="F40" s="8"/>
       <c r="G40" s="5"/>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="41" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="5"/>
       <c r="F41" s="8"/>
       <c r="G41" s="5"/>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="42" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="5"/>
       <c r="F42" s="8"/>
       <c r="G42" s="5"/>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="43" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="5"/>
       <c r="F43" s="8"/>
       <c r="G43" s="5"/>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="44" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="5"/>
       <c r="F44" s="8"/>
       <c r="G44" s="5"/>
       <c r="H44" s="8"/>
     </row>
-    <row r="45" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="45" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="5"/>
       <c r="F45" s="8"/>
       <c r="G45" s="5"/>
       <c r="H45" s="8"/>
     </row>
-    <row r="46" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="46" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="5"/>
       <c r="F46" s="8"/>
       <c r="G46" s="5"/>
       <c r="H46" s="8"/>
     </row>
-    <row r="47" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="47" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="5"/>
       <c r="F47" s="8"/>
       <c r="G47" s="5"/>
       <c r="H47" s="8"/>
     </row>
-    <row r="48" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="48" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="5"/>
       <c r="F48" s="8"/>
       <c r="G48" s="5"/>
       <c r="H48" s="8"/>
     </row>
-    <row r="49" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="49" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="5"/>
       <c r="F49" s="8"/>
       <c r="G49" s="5"/>
       <c r="H49" s="8"/>
     </row>
-    <row r="50" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="50" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="5"/>
       <c r="F50" s="8"/>
       <c r="G50" s="5"/>
       <c r="H50" s="8"/>
     </row>
-    <row r="51" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="51" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="5"/>
       <c r="F51" s="8"/>
       <c r="G51" s="5"/>
       <c r="H51" s="8"/>
     </row>
-    <row r="52" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="52" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="5"/>
       <c r="F52" s="8"/>
       <c r="H52" s="8"/>
     </row>
-    <row r="53" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="53" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="5"/>
       <c r="F53" s="8"/>
       <c r="H53" s="8"/>
     </row>
-    <row r="54" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="54" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="5"/>
       <c r="F54" s="8"/>
       <c r="H54" s="8"/>
     </row>
-    <row r="55" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="55" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="5"/>
       <c r="F55" s="8"/>
       <c r="H55" s="8"/>
     </row>
-    <row r="56" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="56" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="5"/>
       <c r="F56" s="8"/>
       <c r="H56" s="8"/>
     </row>
-    <row r="57" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="57" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="5"/>
       <c r="F57" s="8"/>
       <c r="H57" s="8"/>
     </row>
-    <row r="58" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="58" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="5"/>
       <c r="F58" s="8"/>
       <c r="H58" s="8"/>
     </row>
-    <row r="59" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="59" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="5"/>
       <c r="F59" s="8"/>
       <c r="H59" s="9"/>
     </row>
-    <row r="60" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="60" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="5"/>
       <c r="F60" s="8"/>
       <c r="H60" s="8"/>
     </row>
-    <row r="61" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="61" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="5"/>
       <c r="F61" s="8"/>
       <c r="H61" s="8"/>
     </row>
-    <row r="62" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="62" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" s="5"/>
       <c r="F62" s="8"/>
       <c r="H62" s="8"/>
     </row>
-    <row r="63" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="63" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="5"/>
       <c r="F63" s="8"/>
       <c r="G63" s="5"/>
       <c r="H63" s="7"/>
     </row>
-    <row r="64" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="64" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="5"/>
       <c r="F64" s="8"/>
       <c r="G64" s="5"/>
       <c r="H64" s="7"/>
     </row>
-    <row r="65" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="65" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" s="5"/>
       <c r="F65" s="8"/>
       <c r="G65" s="5"/>
       <c r="H65" s="7"/>
     </row>
-    <row r="66" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="66" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="5"/>
       <c r="F66" s="8"/>
       <c r="H66" s="8"/>
     </row>
-    <row r="67" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="67" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="5"/>
       <c r="F67" s="8"/>
       <c r="H67" s="8"/>
     </row>
-    <row r="68" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="68" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="5"/>
       <c r="F68" s="8"/>
       <c r="H68" s="8"/>
     </row>
-    <row r="69" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="69" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="5"/>
       <c r="F69" s="8"/>
       <c r="H69" s="8"/>
     </row>
-    <row r="70" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="70" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="5"/>
       <c r="F70" s="8"/>
       <c r="H70" s="8"/>
     </row>
-    <row r="71" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="71" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="5"/>
       <c r="F71" s="8"/>
       <c r="H71" s="8"/>
     </row>
-    <row r="72" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="72" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" s="5"/>
       <c r="F72" s="8"/>
       <c r="H72" s="9"/>
     </row>
-    <row r="73" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="73" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="5"/>
       <c r="F73" s="8"/>
       <c r="H73" s="8"/>
     </row>
-    <row r="74" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="74" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="5"/>
       <c r="F74" s="8"/>
       <c r="G74" s="6"/>
       <c r="H74" s="8"/>
     </row>
-    <row r="75" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="75" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" s="5"/>
       <c r="F75" s="8"/>
       <c r="G75" s="5"/>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="76" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" s="5"/>
       <c r="F76" s="8"/>
       <c r="G76" s="5"/>
       <c r="H76" s="7"/>
     </row>
-    <row r="77" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="77" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" s="5"/>
       <c r="F77" s="8"/>
       <c r="G77" s="5"/>
       <c r="H77" s="8"/>
     </row>
-    <row r="78" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="78" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" s="5"/>
       <c r="F78" s="8"/>
       <c r="H78" s="8"/>
     </row>
-    <row r="79" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="79" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79" s="5"/>
       <c r="F79" s="8"/>
       <c r="G79" s="5"/>
       <c r="H79" s="8"/>
     </row>
-    <row r="80" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="80" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" s="5"/>
       <c r="F80" s="8"/>
       <c r="G80" s="5"/>
       <c r="H80" s="8"/>
     </row>
-    <row r="81" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="81" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81" s="5"/>
       <c r="F81" s="8"/>
       <c r="G81" s="5"/>
       <c r="H81" s="8"/>
     </row>
-    <row r="82" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="82" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="5"/>
       <c r="F82" s="8"/>
       <c r="G82" s="5"/>
       <c r="H82" s="8"/>
     </row>
-    <row r="83" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="83" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="5"/>
       <c r="F83" s="8"/>
       <c r="G83" s="5"/>
       <c r="H83" s="8"/>
     </row>
-    <row r="84" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="84" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="5"/>
       <c r="F84" s="8"/>
       <c r="G84" s="5"/>
       <c r="H84" s="8"/>
     </row>
-    <row r="85" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="85" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B85" s="5"/>
       <c r="F85" s="8"/>
       <c r="G85" s="5"/>
       <c r="H85" s="8"/>
     </row>
-    <row r="86" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="86" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86" s="5"/>
       <c r="F86" s="8"/>
       <c r="G86" s="5"/>
       <c r="H86" s="8"/>
     </row>
-    <row r="87" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="87" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" s="5"/>
       <c r="F87" s="8"/>
       <c r="G87" s="5"/>
       <c r="H87" s="8"/>
     </row>
-    <row r="88" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="88" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" s="5"/>
       <c r="F88" s="8"/>
       <c r="G88" s="5"/>
       <c r="H88" s="8"/>
     </row>
-    <row r="89" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="89" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B89" s="5"/>
       <c r="F89" s="8"/>
       <c r="G89" s="5"/>
       <c r="H89" s="8"/>
     </row>
-    <row r="90" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="90" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90" s="5"/>
       <c r="F90" s="8"/>
       <c r="G90" s="5"/>
       <c r="H90" s="8"/>
     </row>
-    <row r="91" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="91" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" s="5"/>
       <c r="F91" s="8"/>
       <c r="G91" s="5"/>
       <c r="H91" s="8"/>
     </row>
-    <row r="92" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="92" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B92" s="5"/>
       <c r="F92" s="8"/>
       <c r="H92" s="8"/>
     </row>
-    <row r="93" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="93" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" s="5"/>
       <c r="F93" s="8"/>
       <c r="H93" s="8"/>
     </row>
-    <row r="94" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="94" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B94" s="5"/>
       <c r="F94" s="8"/>
       <c r="H94" s="8"/>
     </row>
-    <row r="95" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="95" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" s="5"/>
       <c r="F95" s="8"/>
       <c r="H95" s="8"/>
     </row>
-    <row r="96" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="96" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B96" s="5"/>
       <c r="F96" s="8"/>
       <c r="H96" s="8"/>
     </row>
-    <row r="97" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="97" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97" s="5"/>
       <c r="F97" s="8"/>
       <c r="H97" s="8"/>
     </row>
-    <row r="98" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="98" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98" s="5"/>
       <c r="F98" s="8"/>
       <c r="H98" s="8"/>
     </row>
-    <row r="99" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="99" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" s="5"/>
       <c r="F99" s="8"/>
       <c r="G99" s="5"/>
       <c r="H99" s="8"/>
     </row>
-    <row r="100" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="100" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100" s="5"/>
       <c r="F100" s="8"/>
       <c r="H100" s="8"/>
     </row>
-    <row r="101" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="101" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" s="5"/>
       <c r="F101" s="8"/>
       <c r="H101" s="8"/>
     </row>
-    <row r="102" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="102" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102" s="5"/>
       <c r="F102" s="8"/>
       <c r="H102" s="8"/>
     </row>
-    <row r="103" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="103" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" s="5"/>
       <c r="F103" s="8"/>
       <c r="H103" s="8"/>
     </row>
-    <row r="104" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="104" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B104" s="5"/>
       <c r="F104" s="8"/>
       <c r="H104" s="8"/>
     </row>
-    <row r="105" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="105" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B105" s="5"/>
       <c r="F105" s="8"/>
       <c r="H105" s="8"/>
     </row>
-    <row r="106" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="106" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B106" s="5"/>
       <c r="F106" s="8"/>
       <c r="G106" s="5"/>
       <c r="H106" s="8"/>
     </row>
-    <row r="107" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="107" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B107" s="5"/>
       <c r="F107" s="8"/>
       <c r="G107" s="5"/>
       <c r="H107" s="8"/>
     </row>
-    <row r="108" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="108" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B108" s="5"/>
       <c r="F108" s="8"/>
       <c r="H108" s="8"/>
     </row>
-    <row r="109" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="109" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B109" s="5"/>
       <c r="F109" s="8"/>
       <c r="H109" s="8"/>
     </row>
-    <row r="110" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="110" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B110" s="5"/>
       <c r="F110" s="8"/>
       <c r="H110" s="8"/>
     </row>
-    <row r="111" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="111" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B111" s="5"/>
       <c r="F111" s="8"/>
       <c r="H111" s="8"/>
     </row>
-    <row r="112" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="112" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B112" s="5"/>
       <c r="F112" s="8"/>
       <c r="H112" s="8"/>
     </row>
-    <row r="113" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="113" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B113" s="5"/>
       <c r="F113" s="8"/>
       <c r="H113" s="8"/>
     </row>
-    <row r="114" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="114" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B114" s="5"/>
       <c r="F114" s="8"/>
       <c r="G114" s="5"/>
       <c r="H114" s="8"/>
     </row>
-    <row r="115" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="115" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B115" s="5"/>
       <c r="F115" s="8"/>
       <c r="H115" s="8"/>
     </row>
-    <row r="116" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="116" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B116" s="5"/>
       <c r="F116" s="8"/>
       <c r="H116" s="8"/>
     </row>
-    <row r="117" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="117" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B117" s="5"/>
       <c r="F117" s="8"/>
       <c r="H117" s="8"/>
     </row>
-    <row r="118" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="118" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B118" s="5"/>
       <c r="F118" s="8"/>
       <c r="H118" s="8"/>
     </row>
-    <row r="119" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="119" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B119" s="5"/>
       <c r="F119" s="8"/>
       <c r="H119" s="8"/>
     </row>
-    <row r="120" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="120" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B120" s="5"/>
       <c r="F120" s="8"/>
       <c r="H120" s="8"/>
     </row>
-    <row r="121" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="121" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B121" s="5"/>
       <c r="F121" s="8"/>
       <c r="H121" s="9"/>
     </row>
-    <row r="122" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="122" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B122" s="5"/>
       <c r="F122" s="8"/>
       <c r="H122" s="8"/>
     </row>
-    <row r="123" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="123" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B123" s="5"/>
       <c r="F123" s="8"/>
       <c r="H123" s="8"/>
     </row>
-    <row r="124" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="124" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B124" s="5"/>
       <c r="F124" s="8"/>
       <c r="G124" s="6"/>
       <c r="H124" s="8"/>
     </row>
-    <row r="125" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="125" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B125" s="5"/>
       <c r="F125" s="8"/>
       <c r="G125" s="5"/>
       <c r="H125" s="7"/>
     </row>
-    <row r="126" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="126" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B126" s="5"/>
       <c r="F126" s="8"/>
       <c r="G126" s="5"/>
       <c r="H126" s="7"/>
     </row>
-    <row r="127" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="127" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B127" s="5"/>
       <c r="F127" s="8"/>
       <c r="G127" s="5"/>
       <c r="H127" s="7"/>
     </row>
-    <row r="128" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="128" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B128" s="5"/>
       <c r="F128" s="8"/>
       <c r="H128" s="8"/>
     </row>
-    <row r="129" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="129" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B129" s="5"/>
       <c r="F129" s="8"/>
       <c r="H129" s="8"/>
     </row>
-    <row r="130" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="130" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B130" s="5"/>
       <c r="F130" s="8"/>
       <c r="H130" s="8"/>
     </row>
-    <row r="131" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="131" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B131" s="5"/>
       <c r="F131" s="8"/>
       <c r="H131" s="8"/>
     </row>
-    <row r="132" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="132" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B132" s="5"/>
       <c r="F132" s="8"/>
       <c r="H132" s="8"/>
     </row>
-    <row r="133" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="133" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B133" s="5"/>
       <c r="F133" s="8"/>
       <c r="H133" s="8"/>
     </row>
-    <row r="134" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="134" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B134" s="5"/>
       <c r="F134" s="8"/>
       <c r="H134" s="9"/>
     </row>
-    <row r="135" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="135" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B135" s="5"/>
       <c r="F135" s="8"/>
       <c r="H135" s="8"/>
     </row>
-    <row r="136" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="136" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B136" s="5"/>
       <c r="F136" s="8"/>
       <c r="G136" s="6"/>
       <c r="H136" s="8"/>
     </row>
-    <row r="137" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="137" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B137" s="5"/>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/test/java/dataEngine/Unit Tests.xlsx
+++ b/src/test/java/dataEngine/Unit Tests.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="18">
   <si>
     <t>Test Case ID</t>
   </si>
